--- a/InputFiles/CCDI/TC01_CCDI_phs002371_Sex-Male_DiagAnatomicsite-C42.0Blood.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs002371_Sex-Male_DiagAnatomicsite-C42.0Blood.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\03-31-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\04-29-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E320C5-EEA3-4FD4-88FF-E866B9844465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBC928F-B11F-4501-9E63-375C40FDB0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -187,57 +187,69 @@
     smp.sample_id ASC;</t>
   </si>
   <si>
-    <t xml:space="preserve">with file_data as (
-select file_name, data_category, file_description, file_type, file_size,file_access,  "sample.id" from df_sequencing_file)
-SELECT fd.file_name AS "File Name",
+    <t>WITH file_data AS (
+    SELECT 
+        file_name, 
+        data_category, 
+        file_description, 
+        file_type, 
+        file_size,
+        file_access,  
+        CAST("sample.id" AS TEXT) AS sample_id
+    FROM df_sequencing_file
+)
+SELECT 
+    fd.file_name AS "File Name",
     fd.data_category AS "Data Category",
     COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type" ,
-        CASE     
-    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN fd.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(fd.file_size, 2) || ' Bytes'
-        END
-END AS "File Size",
-fd.file_access AS "File Access",
+    fd.file_type AS "File Type",
+    CASE     
+        WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            CASE 
+                WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+                THEN CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) || ' GB'
+                ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+            END
+        WHEN fd.file_size &gt;= 1024 * 1024 THEN 
+            CASE 
+                WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
+                THEN CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) || ' MB'
+                ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
+            END
+        WHEN fd.file_size &gt;= 1024 THEN 
+            CASE 
+                WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
+                THEN CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) || ' KB'
+                ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
+            END
+        ELSE 
+            CASE 
+                WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
+                THEN CAST(ROUND(fd.file_size, 0) AS INT) || ' Bytes'
+                ELSE ROUND(fd.file_size, 2) || ' Bytes'
+            END
+    END AS "File Size",
+    fd.file_access AS "File Access",
     std.dbgap_accession AS "Study ID",
     prt.participant_id AS "Participant ID",
     smp.sample_id AS "Sample ID"    
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
+    df_participant prt ON CAST(std.id AS TEXT) = CAST(prt."study.id" AS TEXT)
+LEFT JOIN 
+    df_sample smp ON CAST(prt.id AS TEXT) = CAST(smp."participant.id" AS TEXT)
 LEFT JOIN
-   df_diagnosis dgn ON prt.id = dgn."participant.id"
+    df_diagnosis dgn ON CAST(prt.id AS TEXT) = CAST(dgn."participant.id" AS TEXT)
 JOIN 
-    file_data fd ON smp.id = fd."sample.id"
+    file_data fd ON CAST(smp.id AS TEXT) = fd.sample_id
 WHERE 
-    std.dbgap_accession = 'phs002371' AND prt.sex_at_birth='Male' and dgn.anatomic_site = 'C42.0 : Blood'
-ORDER BY  fd.file_name
-limit 100;
-</t>
+    std.dbgap_accession = 'phs002371' 
+    AND prt.sex_at_birth = 'Male' 
+    AND dgn.anatomic_site = 'C42.0 : Blood'
+ORDER BY  
+    fd.file_name
+LIMIT 100;</t>
   </si>
 </sst>
 </file>

--- a/InputFiles/CCDI/TC01_CCDI_phs002371_Sex-Male_DiagAnatomicsite-C42.0Blood.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs002371_Sex-Male_DiagAnatomicsite-C42.0Blood.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\04-29-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\05-01-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBC928F-B11F-4501-9E63-375C40FDB0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B618C6E6-E35E-4B6B-949B-EAF46EF96DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -163,28 +163,6 @@
     df_sequencing_file seq ON smp.id = seq."sample.id"
 WHERE 
     std.dbgap_accession = 'phs002371';</t>
-  </si>
-  <si>
-    <t>SELECT
-    smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    Null  AS "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs002371' 
-    AND prt.sex_at_birth = 'Male'
-	and dgn.anatomic_site= 'C42.0 : Blood'
-ORDER BY 
-    smp.sample_id ASC;</t>
   </si>
   <si>
     <t>WITH file_data AS (
@@ -250,6 +228,31 @@
 ORDER BY  
     fd.file_name
 LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    smp.sample_id AS "Sample ID",
+    prt.participant_id AS "Participant ID",
+    std.dbgap_accession AS "Study ID",
+    smp.anatomic_site AS "Sample Anatomic Site",
+    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
+    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
+    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
+    Null  AS "Sample Diagnosis"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_diagnosis dgn ON prt.id = dgn."participant.id"
+WHERE 
+    std.dbgap_accession = 'phs002371' 
+    AND prt.sex_at_birth = 'Male'
+	and dgn.anatomic_site= 'C42.0 : Blood'
+ORDER BY 
+    smp.sample_id ASC;</t>
   </si>
 </sst>
 </file>
@@ -651,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,12 +709,12 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -720,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
     </row>
